--- a/Step10.xlsx
+++ b/Step10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianggao/Desktop/Time_series-final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6487078D-2D09-1148-86C2-3394F15719D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D0128D-A36F-0B47-AA39-9101D8CEF3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1440" windowWidth="28040" windowHeight="17260" xr2:uid="{FBAF6ED0-8C3F-E64F-B3F1-E07017147D7E}"/>
+    <workbookView xWindow="880" yWindow="1460" windowWidth="28040" windowHeight="17260" xr2:uid="{FBAF6ED0-8C3F-E64F-B3F1-E07017147D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,17 +476,16 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F5"/>
+      <selection activeCell="B13" sqref="B13:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="8.1640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -500,13 +499,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -517,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
         <v>-99209.9</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>-99058.9</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -534,13 +533,13 @@
         <v>0.79</v>
       </c>
       <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
         <v>-99211.9</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>-99068.4</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -551,13 +550,13 @@
         <v>0.33</v>
       </c>
       <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
         <v>-99212.9</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>-99077</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -568,13 +567,13 @@
         <v>0.09</v>
       </c>
       <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>-99212</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>-99083.6</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -588,25 +587,25 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
         <v>-99206</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>-99062.5</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -617,13 +616,13 @@
         <v>14403743.528552899</v>
       </c>
       <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <v>-99207</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>-99071.1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -634,13 +633,13 @@
         <v>1664251.7537688001</v>
       </c>
       <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <v>-98235.6</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>-98107.3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -651,13 +650,13 @@
         <v>18405.6076996007</v>
       </c>
       <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
         <v>-92196.9</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>-92076.2</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -668,13 +667,13 @@
         <v>790.67797625916398</v>
       </c>
       <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
         <v>-92182.1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>-92068.9</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -685,13 +684,13 @@
         <v>304.33909366534698</v>
       </c>
       <c r="D19" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="E19" s="2">
         <v>-40252.400000000001</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>-40146.800000000003</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.997</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -702,13 +701,13 @@
         <v>40.646826612873298</v>
       </c>
       <c r="D20" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="E20" s="2">
         <v>-37617.699999999997</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>-37519.599999999999</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.996</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -719,13 +718,13 @@
         <v>24.885344946592301</v>
       </c>
       <c r="D21" s="2">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E21" s="2">
         <v>-9753.6</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>-9663</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.97099999999999997</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -736,13 +735,13 @@
         <v>24.6856670113905</v>
       </c>
       <c r="D22" s="2">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E22" s="2">
         <v>-9755.2999999999993</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>-9672.2000000000007</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.97099999999999997</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -753,13 +752,13 @@
         <v>19.523612388809099</v>
       </c>
       <c r="D23" s="2">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E23" s="2">
         <v>-9733.2999999999993</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>-9657.7999999999993</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.97099999999999997</v>
       </c>
     </row>
   </sheetData>
